--- a/target/classes/Excel/InvalidCredentials.xlsx
+++ b/target/classes/Excel/InvalidCredentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ANU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareTesting_Course\Eclipse_Prog\GroceryApplicationCopy\src\main\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1A1B4-4CD5-491D-9D71-EDDFAFBF5FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9DAAAB-D397-40E1-A3FF-F1EADEC080ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1845" windowWidth="14775" windowHeight="13635" xr2:uid="{8608A643-79A2-4B4E-A44C-27FF75FF2A6F}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
